--- a/Auto-Eval-ASI1-r1.xlsx
+++ b/Auto-Eval-ASI1-r1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D9CC4C-FE00-47E6-B9B8-D0C3FB711FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F4444B-C5D3-8F43-8AFB-55AC0409C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Auteur</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -96,7 +96,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Auteur</author>
   </authors>
   <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -920,16 +920,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="32" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.5" thickTop="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D1" s="22" t="s">
         <v>59</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="R1" s="23"/>
       <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1021,7 +1021,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>47</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="15">
@@ -1060,14 +1060,14 @@
       </c>
       <c r="Q4" s="5">
         <f t="shared" ref="Q4:R4" si="0">E4+H4+K4+N4</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="25" t="s">
         <v>4</v>
@@ -1105,14 +1105,14 @@
       <c r="N6" s="8"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
@@ -1148,7 +1148,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="25" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
@@ -1191,14 +1191,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
@@ -1234,20 +1234,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>49</v>
@@ -1277,14 +1277,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
@@ -1320,7 +1320,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
@@ -1363,7 +1363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
@@ -1406,7 +1406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
@@ -1449,7 +1449,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
@@ -1492,7 +1492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
@@ -1535,7 +1535,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
@@ -1578,7 +1578,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
@@ -1621,7 +1621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
@@ -1664,7 +1664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
@@ -1707,7 +1707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
@@ -1750,7 +1750,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
@@ -1793,7 +1793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
@@ -1836,7 +1836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
@@ -1879,7 +1879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
@@ -1922,7 +1922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4" t="s">
@@ -1965,7 +1965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
@@ -2008,7 +2008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4" t="s">
@@ -2051,7 +2051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
@@ -2094,7 +2094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
@@ -2137,7 +2137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
@@ -2180,7 +2180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
@@ -2223,7 +2223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
@@ -2266,7 +2266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4" t="s">
@@ -2309,7 +2309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
@@ -2352,7 +2352,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="25" t="s">
         <v>15</v>
@@ -2371,7 +2371,7 @@
       <c r="N36" s="8"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -2414,7 +2414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
@@ -2457,7 +2457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
@@ -2500,7 +2500,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
@@ -2543,7 +2543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
@@ -2586,7 +2586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
@@ -2629,7 +2629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
@@ -2672,7 +2672,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4" t="s">
@@ -2715,7 +2715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4" t="s">
@@ -2758,7 +2758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4" t="s">
@@ -2801,7 +2801,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4" t="s">
@@ -2844,7 +2844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4" t="s">
@@ -2887,7 +2887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4" t="s">
@@ -2930,7 +2930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4" t="s">
@@ -2973,7 +2973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4" t="s">
@@ -3016,7 +3016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4" t="s">
@@ -3059,7 +3059,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4" t="s">
@@ -3102,7 +3102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="25.75" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="54" spans="1:15" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4" t="s">
@@ -3145,7 +3145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.5" thickTop="1" x14ac:dyDescent="0.75"/>
+    <row r="55" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="P1:R1"/>
@@ -3227,34 +3227,34 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
